--- a/data/extras/lower48Output.xlsx
+++ b/data/extras/lower48Output.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/morgankortlander/Documents/Code/VSCode/EdgeCasesCodeRED/data/extras/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{9A9B8B9B-7CAB-E34F-8BBE-6D095F756D5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{7E731C79-43BA-584E-9D83-AF38B1F4C4E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="920" windowWidth="10000" windowHeight="16420" xr2:uid="{23EA3A0D-8463-244B-A920-12EA6AD0340C}"/>
+    <workbookView xWindow="400" yWindow="680" windowWidth="18180" windowHeight="16420" xr2:uid="{23EA3A0D-8463-244B-A920-12EA6AD0340C}"/>
   </bookViews>
   <sheets>
     <sheet name="lower48Output" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="33">
   <si>
     <t>Permian</t>
   </si>
@@ -68,27 +68,15 @@
     <t>NGL (MBD)</t>
   </si>
   <si>
-    <t>NG (MMCFD)</t>
-  </si>
-  <si>
     <t>NGL (MMBY)</t>
   </si>
   <si>
-    <t>NG (MMMCFY)</t>
-  </si>
-  <si>
     <t>(Conv/Delaware) Crude Oil (MBD)</t>
   </si>
   <si>
     <t>(Unconv/Midland) Crude Oil (MBD)</t>
   </si>
   <si>
-    <t>(Conv/Delaware) NG</t>
-  </si>
-  <si>
-    <t>(Unconv/Midland) NG</t>
-  </si>
-  <si>
     <t>(Conv/Delaware) NGL</t>
   </si>
   <si>
@@ -104,9 +92,6 @@
     <t>Aoi (MMBOEY)</t>
   </si>
   <si>
-    <t>NG (%)</t>
-  </si>
-  <si>
     <t>NGL (%)</t>
   </si>
   <si>
@@ -117,6 +102,39 @@
   </si>
   <si>
     <t>Total ALL</t>
+  </si>
+  <si>
+    <t>Nat Gas (MMCFD)</t>
+  </si>
+  <si>
+    <t>Nat Gas (MMMCFY)</t>
+  </si>
+  <si>
+    <t>(Conv/Delaware) Nat Gas</t>
+  </si>
+  <si>
+    <t>(Unconv/Midland) Nat Gas</t>
+  </si>
+  <si>
+    <t>Nat Gas (%)</t>
+  </si>
+  <si>
+    <t>Notes:</t>
+  </si>
+  <si>
+    <t>NGL: Nat Gas Liquids</t>
+  </si>
+  <si>
+    <t>MBD: 1k bbl/day</t>
+  </si>
+  <si>
+    <t>MBOED: 1k bbl/oil equiv/day</t>
+  </si>
+  <si>
+    <t>MMBOEY: mil bbl/oil equiv/year</t>
+  </si>
+  <si>
+    <t>MMMCFY: bil cube ft. / year</t>
   </si>
 </sst>
 </file>
@@ -151,7 +169,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -174,16 +192,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -498,11 +526,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD5ABC55-C9C7-A349-9C52-7EB0010F1384}">
-  <dimension ref="A1:F44"/>
+  <dimension ref="A1:F52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D39" sqref="D39"/>
+      <selection pane="topRight" activeCell="A53" sqref="A53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -546,8 +574,12 @@
       <c r="D3" s="2">
         <v>103</v>
       </c>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
+      <c r="E3" s="2">
+        <v>116</v>
+      </c>
+      <c r="F3" s="2">
+        <v>117</v>
+      </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
@@ -567,16 +599,16 @@
       </c>
       <c r="E4" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>42.34</v>
       </c>
       <c r="F4" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>42.704999999999998</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="B5" s="2">
         <v>42</v>
@@ -587,12 +619,16 @@
       <c r="D5" s="2">
         <v>228</v>
       </c>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
+      <c r="E5" s="2">
+        <v>251</v>
+      </c>
+      <c r="F5" s="2">
+        <v>271</v>
+      </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="B6" s="3">
         <f>B5*365/1000</f>
@@ -608,11 +644,11 @@
       </c>
       <c r="E6" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>91.614999999999995</v>
       </c>
       <c r="F6" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>98.915000000000006</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -628,12 +664,16 @@
       <c r="D7" s="2">
         <v>46</v>
       </c>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
+      <c r="E7" s="2">
+        <v>53</v>
+      </c>
+      <c r="F7" s="2">
+        <v>58</v>
+      </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B8" s="3">
         <f>B7*365/1000</f>
@@ -649,11 +689,11 @@
       </c>
       <c r="E8" s="3">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>19.344999999999999</v>
       </c>
       <c r="F8" s="3">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>21.17</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -669,8 +709,12 @@
       <c r="D9" s="2">
         <v>186</v>
       </c>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
+      <c r="E9" s="2">
+        <v>211</v>
+      </c>
+      <c r="F9" s="2">
+        <v>220</v>
+      </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
@@ -690,11 +734,11 @@
       </c>
       <c r="E10" s="3">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>77.015000000000001</v>
       </c>
       <c r="F10" s="3">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>80.3</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -720,8 +764,12 @@
       <c r="D12" s="2">
         <v>53</v>
       </c>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
+      <c r="E12" s="2">
+        <v>59</v>
+      </c>
+      <c r="F12" s="2">
+        <v>59</v>
+      </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
@@ -741,16 +789,16 @@
       </c>
       <c r="E13" s="3">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>21.535</v>
       </c>
       <c r="F13" s="3">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>21.535</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="B14" s="2">
         <v>72</v>
@@ -761,12 +809,16 @@
       <c r="D14" s="2">
         <v>92</v>
       </c>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
+      <c r="E14" s="2">
+        <v>117</v>
+      </c>
+      <c r="F14" s="2">
+        <v>127</v>
+      </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="B15" s="3">
         <f>B14*365/1000</f>
@@ -782,11 +834,11 @@
       </c>
       <c r="E15" s="3">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>42.704999999999998</v>
       </c>
       <c r="F15" s="3">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>46.354999999999997</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -802,12 +854,16 @@
       <c r="D16" s="2">
         <v>10</v>
       </c>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
+      <c r="E16" s="2">
+        <v>16</v>
+      </c>
+      <c r="F16" s="2">
+        <v>15</v>
+      </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B17" s="3">
         <f>B16*365/1000</f>
@@ -823,11 +879,11 @@
       </c>
       <c r="E17" s="3">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>5.84</v>
       </c>
       <c r="F17" s="3">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>5.4749999999999996</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -843,8 +899,12 @@
       <c r="D18" s="2">
         <v>78</v>
       </c>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
+      <c r="E18" s="2">
+        <v>94</v>
+      </c>
+      <c r="F18" s="2">
+        <v>95</v>
+      </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" t="s">
@@ -864,11 +924,11 @@
       </c>
       <c r="E19" s="3">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>34.31</v>
       </c>
       <c r="F19" s="3">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>34.674999999999997</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -883,7 +943,7 @@
     </row>
     <row r="21" spans="1:6">
       <c r="A21" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B21" s="2">
         <v>21</v>
@@ -894,12 +954,16 @@
       <c r="D21" s="2">
         <v>12</v>
       </c>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
+      <c r="E21" s="2">
+        <v>162</v>
+      </c>
+      <c r="F21" s="2">
+        <v>258</v>
+      </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B22" s="2">
         <v>14</v>
@@ -910,8 +974,12 @@
       <c r="D22" s="2">
         <v>33</v>
       </c>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
+      <c r="E22" s="2">
+        <v>89</v>
+      </c>
+      <c r="F22" s="2">
+        <v>91</v>
+      </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" t="s">
@@ -931,11 +999,11 @@
       </c>
       <c r="E23" s="3">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>251</v>
       </c>
       <c r="F23" s="3">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>349</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -956,16 +1024,16 @@
       </c>
       <c r="E24" s="3">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>91.614999999999995</v>
       </c>
       <c r="F24" s="3">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>127.38500000000001</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="B25" s="2">
         <v>77</v>
@@ -976,12 +1044,16 @@
       <c r="D25" s="2">
         <v>42</v>
       </c>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
+      <c r="E25" s="2">
+        <v>584</v>
+      </c>
+      <c r="F25" s="2">
+        <v>752</v>
+      </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="B26" s="2">
         <v>49</v>
@@ -992,12 +1064,16 @@
       <c r="D26" s="2">
         <v>113</v>
       </c>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
+      <c r="E26" s="2">
+        <v>229</v>
+      </c>
+      <c r="F26" s="2">
+        <v>196</v>
+      </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="B27" s="3">
         <f>B26+B25</f>
@@ -1013,16 +1089,16 @@
       </c>
       <c r="E27" s="3">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>813</v>
       </c>
       <c r="F27" s="3">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>948</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="B28" s="3">
         <f>B27*365/1000</f>
@@ -1038,16 +1114,16 @@
       </c>
       <c r="E28" s="3">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>296.745</v>
       </c>
       <c r="F28" s="3">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>346.02</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B29" s="2">
         <v>5</v>
@@ -1058,12 +1134,16 @@
       <c r="D29" s="2">
         <v>2</v>
       </c>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
+      <c r="E29" s="2">
+        <v>27</v>
+      </c>
+      <c r="F29" s="2">
+        <v>114</v>
+      </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B30" s="2">
         <v>6</v>
@@ -1074,8 +1154,12 @@
       <c r="D30" s="2">
         <v>12</v>
       </c>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
+      <c r="E30" s="2">
+        <v>9</v>
+      </c>
+      <c r="F30" s="2">
+        <v>31</v>
+      </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" t="s">
@@ -1095,16 +1179,16 @@
       </c>
       <c r="E31" s="3">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="F31" s="3">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>145</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B32" s="3">
         <f>B31*365/1000</f>
@@ -1120,16 +1204,16 @@
       </c>
       <c r="E32" s="3">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>13.14</v>
       </c>
       <c r="F32" s="3">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>52.924999999999997</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B33" s="4">
         <v>38</v>
@@ -1140,12 +1224,16 @@
       <c r="D33" s="4">
         <v>21</v>
       </c>
-      <c r="E33" s="4"/>
-      <c r="F33" s="4"/>
+      <c r="E33" s="4">
+        <v>286</v>
+      </c>
+      <c r="F33" s="4">
+        <v>498</v>
+      </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B34" s="4">
         <v>28</v>
@@ -1156,8 +1244,12 @@
       <c r="D34" s="4">
         <v>64</v>
       </c>
-      <c r="E34" s="4"/>
-      <c r="F34" s="4"/>
+      <c r="E34" s="4">
+        <v>136</v>
+      </c>
+      <c r="F34" s="4">
+        <v>155</v>
+      </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" t="s">
@@ -1177,11 +1269,11 @@
       </c>
       <c r="E35" s="3">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>422</v>
       </c>
       <c r="F35" s="3">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>653</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1202,11 +1294,11 @@
       </c>
       <c r="E36" s="3">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>154.03</v>
       </c>
       <c r="F36" s="3">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>238.345</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1221,7 +1313,7 @@
     </row>
     <row r="38" spans="1:6">
       <c r="A38" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B38" s="3">
         <f>B36+B19+B10</f>
@@ -1237,16 +1329,16 @@
       </c>
       <c r="E38" s="3">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>265.35500000000002</v>
       </c>
       <c r="F38" s="3">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>353.32</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B39" s="4"/>
       <c r="C39" s="4"/>
@@ -1256,7 +1348,7 @@
     </row>
     <row r="40" spans="1:6">
       <c r="A40" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B40" s="2">
         <v>397</v>
@@ -1267,12 +1359,16 @@
       <c r="D40" s="2">
         <v>385</v>
       </c>
-      <c r="E40" s="2"/>
-      <c r="F40" s="2"/>
+      <c r="E40" s="2">
+        <v>780</v>
+      </c>
+      <c r="F40" s="2">
+        <v>989</v>
+      </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B41" s="3">
         <f>B40*365/1000</f>
@@ -1288,11 +1384,11 @@
       </c>
       <c r="E41" s="3">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>284.7</v>
       </c>
       <c r="F41" s="3">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>360.98500000000001</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1308,12 +1404,16 @@
       <c r="D42" s="4">
         <v>0.55000000000000004</v>
       </c>
-      <c r="E42" s="4"/>
-      <c r="F42" s="4"/>
+      <c r="E42" s="4">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="F42" s="4">
+        <v>0.54</v>
+      </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B43" s="4">
         <v>0.25</v>
@@ -1324,12 +1424,16 @@
       <c r="D43" s="4">
         <v>0.25</v>
       </c>
-      <c r="E43" s="4"/>
-      <c r="F43" s="4"/>
+      <c r="E43" s="5">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="F43" s="4">
+        <v>0.24</v>
+      </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B44" s="4">
         <v>0.17</v>
@@ -1340,8 +1444,42 @@
       <c r="D44" s="4">
         <v>0.2</v>
       </c>
-      <c r="E44" s="4"/>
-      <c r="F44" s="4"/>
+      <c r="E44" s="4">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="F44" s="4">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52" t="s">
+        <v>32</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
